--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\OneDrive\문서\GitHub\Sub_Proj\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\OneDrive\문서\GitHub\Sub_Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F277F1-E82E-4A14-B955-02A7EC2BF11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCEDCC-89F2-42E5-A2E9-004AFE191FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="100" windowWidth="11090" windowHeight="15180" activeTab="1" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
   <sheets>
     <sheet name="interaction" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,26 @@
   </si>
   <si>
     <t>Stand At The Door To Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -606,89 +626,129 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>102000</v>
+        <v>101004</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>102001</v>
+        <v>102000</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>102010</v>
+        <v>102001</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>102011</v>
+        <v>102010</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>102012</v>
+        <v>102011</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>102020</v>
+        <v>102012</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>102021</v>
+        <v>102020</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>102022</v>
+        <v>102021</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>201000</v>
+        <v>102022</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>201001</v>
+        <v>104000</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
+        <v>104001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>104002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>104003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>201000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>201001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>201002</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -702,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC4CAE-EBAC-40C7-8BC9-BC63200A49D0}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsflo\OneDrive\문서\GitHub\Sub_Proj\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\Sub_Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCEDCC-89F2-42E5-A2E9-004AFE191FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E746E7-BA7F-4984-8D6A-F4158C8C0910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
   <sheets>
     <sheet name="interaction" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it was a hot diving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I feel very airy.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +179,33 @@
   </si>
   <si>
     <t>Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava Diving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was a hot diving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baked crispy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Spreads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire must be seen from a distance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spores seeped</t>
+  </si>
+  <si>
+    <t>My inside feels itchy.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +252,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,17 +595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101000</v>
       </c>
@@ -600,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101001</v>
       </c>
@@ -608,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101002</v>
       </c>
@@ -616,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>101003</v>
       </c>
@@ -624,15 +645,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>101004</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>102000</v>
       </c>
@@ -640,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102001</v>
       </c>
@@ -648,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>102010</v>
       </c>
@@ -656,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>102011</v>
       </c>
@@ -664,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>102012</v>
       </c>
@@ -672,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>102020</v>
       </c>
@@ -680,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>102021</v>
       </c>
@@ -688,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>102022</v>
       </c>
@@ -696,39 +717,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>104000</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>104001</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>104002</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>104003</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>201000</v>
       </c>
@@ -736,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>201001</v>
       </c>
@@ -744,12 +765,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>201002</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -760,19 +781,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC4CAE-EBAC-40C7-8BC9-BC63200A49D0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -794,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -805,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -816,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -827,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -835,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -846,18 +867,51 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\Sub_Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E746E7-BA7F-4984-8D6A-F4158C8C0910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A47E14-3F17-40C7-BE64-A5E76938CD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
   <sheets>
     <sheet name="interaction" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>My inside feels itchy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,121 +659,129 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>102000</v>
+        <v>101005</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>102001</v>
+        <v>102000</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>102010</v>
+        <v>102001</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>102011</v>
+        <v>102010</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>102012</v>
+        <v>102011</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>102020</v>
+        <v>102012</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>102021</v>
+        <v>102020</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>102022</v>
+        <v>102021</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>104000</v>
+        <v>102022</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>104001</v>
+        <v>104000</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>104002</v>
+        <v>104001</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>104003</v>
+        <v>104002</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>201000</v>
+        <v>104003</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>201001</v>
+        <v>201000</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>201001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>201002</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -783,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC4CAE-EBAC-40C7-8BC9-BC63200A49D0}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\Sub_Proj\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A47E14-3F17-40C7-BE64-A5E76938CD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0FA45-0616-433A-8DC6-EF025F142918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't Aim For Open Door</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,9 +789,18 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>201003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\Sub_Proj\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74e6051aefa475a8/Documents/Github/Sub_Proj/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0FA45-0616-433A-8DC6-EF025F142918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{47E0FA45-0616-433A-8DC6-EF025F142918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1CAC94-4429-4AAA-9DB9-79719443742A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
   <sheets>
     <sheet name="interaction" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
   </si>
   <si>
     <t>Don't Aim For Open Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,19 +609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>101000</v>
       </c>
@@ -629,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>101001</v>
       </c>
@@ -637,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>101002</v>
       </c>
@@ -645,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>101003</v>
       </c>
@@ -653,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>101004</v>
       </c>
@@ -661,7 +669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>101005</v>
       </c>
@@ -669,7 +677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>102000</v>
       </c>
@@ -677,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>102001</v>
       </c>
@@ -685,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>102010</v>
       </c>
@@ -693,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102011</v>
       </c>
@@ -701,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102012</v>
       </c>
@@ -709,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>102020</v>
       </c>
@@ -717,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>102021</v>
       </c>
@@ -725,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>102022</v>
       </c>
@@ -733,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>104000</v>
       </c>
@@ -741,7 +749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>104001</v>
       </c>
@@ -749,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>104002</v>
       </c>
@@ -757,7 +765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>104003</v>
       </c>
@@ -765,39 +773,58 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
+        <v>104100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>104101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>201000</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>201001</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>201002</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>201003</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A18:A25"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -812,13 +839,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -840,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -851,7 +878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -862,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -873,7 +900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -884,7 +911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -895,7 +922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -906,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -917,7 +944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -928,7 +955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2020</v>
       </c>

--- a/Assets/Excel/Eng.xlsx
+++ b/Assets/Excel/Eng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74e6051aefa475a8/Documents/Github/Sub_Proj/Assets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{47E0FA45-0616-433A-8DC6-EF025F142918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1CAC94-4429-4AAA-9DB9-79719443742A}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{47E0FA45-0616-433A-8DC6-EF025F142918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342AE864-1295-4883-8565-6FA041AAFB01}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{0EA533D5-09C2-4058-B9C1-2080608F687D}"/>
   </bookViews>
   <sheets>
     <sheet name="interaction" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,34 @@
   </si>
   <si>
     <t>Locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to reset the game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pricked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuck thorns all over my body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987B114-F8F6-4DA8-BE58-5D0A228C091D}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -679,151 +711,191 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>102000</v>
+        <v>101006</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>102001</v>
+        <v>101007</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>102010</v>
+        <v>102000</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>102011</v>
+        <v>102001</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>102012</v>
+        <v>102010</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>102020</v>
+        <v>102011</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>102021</v>
+        <v>102012</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>102022</v>
+        <v>102020</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>104000</v>
+        <v>102021</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>104001</v>
+        <v>102022</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>104002</v>
+        <v>104000</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>104003</v>
+        <v>104001</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>104100</v>
+        <v>104002</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>104101</v>
+        <v>104003</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>201000</v>
+        <v>104100</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>201001</v>
+        <v>104101</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>201002</v>
+        <v>104200</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
+        <v>104201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>104202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>201000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>201001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>201002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>201003</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="A18:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition ref="A23:A30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC4CAE-EBAC-40C7-8BC9-BC63200A49D0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -913,60 +985,74 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="A12"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
